--- a/biology/Botanique/Collybia_fusipes/Collybia_fusipes.xlsx
+++ b/biology/Botanique/Collybia_fusipes/Collybia_fusipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Collybie à pied en fuseau, Souchette
 Gymnopus fusipes, autrefois Collybia fusipes, la collybie à pied en fuseau ou souchette, est une espèce de champignons basidiomycètes de la famille des Tricholomatacées (ou des Omphalotacées selon les classifications), caractérisé par la forme de son stipe en forme de fuseau.
@@ -514,47 +526,123 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial
-Gymnopus fusipes (Bull.) Gray 1821 (nom accepté)[1]
-Principaux synonymes
-Agaricus fusipes var. fusipes Bull. 1783
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnopus fusipes (Bull.) Gray 1821 (nom accepté)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Collybia_fusipes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collybia_fusipes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Principaux synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus fusipes var. fusipes Bull. 1783
 Agaricus oedematopus Schaeff. 1774
 Collybia contorta (Bull.) Raithelh. 1979
 Collybia fusipes (Bull.) Quél. 1872
 Collybia fusipes var. contorta (Bull.) Gillet 1876
 Collybia fusipes var. oedematopoda (Schaeff.) Gillet 1876
-Rhodocollybia fusipes (Bull.) Romagn. 1978
-Epithète
-Son épithète a été tirée du latin fusus, "fuseau" et pes, "pied" pour décrire la forme caractéristique de son stipe.
+Rhodocollybia fusipes (Bull.) Romagn. 1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Collybia_fusipes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collybia_fusipes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Epithète</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète a été tirée du latin fusus, "fuseau" et pes, "pied" pour décrire la forme caractéristique de son stipe.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Collybia_fusipes</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Collybia_fusipes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description des sporophores</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son chapeau de 3 à 9 cm, est quasi sphérique puis conique, légèrement mamelonné, puis, en vieillissant, étalé et bosselé, brun-roux, plus pâle vers le centre.
 Les lames sont espacées et inégales, blanc-rosé se tachant de roux. La sporée est blanche.
@@ -565,68 +653,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Collybia_fusipes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Collybia_fusipes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe, ce champignon vient de l'été à l'automne sur les souches de feuillus et particulièrement des chênes. Il pousse en une ou plusieurs touffes de sporophores accolés mais non soudés, qui se désolidarisent une fois cueillis. Ils sont cespiteux mais pas connés.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Collybia_fusipes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Collybia_fusipes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collybie en fuseau est un assez bon comestible à condition d'éliminer le pied coriace et de ne consommer que les chapeaux des exemplaires véritablement jeunes. Attention, car c'est un champignon qui reste longtemps en place avant de pourrir et des récoltes trop tardives pourront se révéler indigestes.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -648,10 +674,78 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, ce champignon vient de l'été à l'automne sur les souches de feuillus et particulièrement des chênes. Il pousse en une ou plusieurs touffes de sporophores accolés mais non soudés, qui se désolidarisent une fois cueillis. Ils sont cespiteux mais pas connés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Collybia_fusipes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collybia_fusipes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collybie en fuseau est un assez bon comestible à condition d'éliminer le pied coriace et de ne consommer que les chapeaux des exemplaires véritablement jeunes. Attention, car c'est un champignon qui reste longtemps en place avant de pourrir et des récoltes trop tardives pourront se révéler indigestes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Collybia_fusipes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collybia_fusipes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Seuls des débutants pourront confondre cette espèce avec d'autres champignons lignicoles tels que pholiotes, hypholomes ou armillaires. Mais l'absence d'anneau et surtout la forme et les cannelures de son pied la rendent facilement identifiable. Il existe d'autres collybies au pied plus ou moins cannelé telles que Collybia maculata ou Collybia distorta mais en forêt de feuillus elle est la seule à avoir, comme son nom l'indique, le pied fuselé.
 </t>
